--- a/4.Workspace/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2025/Thang4/02.TraBH/TBH_KimLong_090425.xlsx
+++ b/4.Workspace/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2025/Thang4/02.TraBH/TBH_KimLong_090425.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VNET\4.Workspace\1. Bộ phận bảo hành\1. Thực hiện sửa chữa bảo hành\nam2025\Thang4\02.TraBH\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEB2829A-E854-4B0B-91AC-94836EAA746D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{104D8D7B-6C62-4205-A07C-B6CA7B1FC51E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -487,6 +487,36 @@
     <xf numFmtId="3" fontId="13" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="13" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -518,36 +548,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="15" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="13" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -915,8 +915,8 @@
   </sheetPr>
   <dimension ref="A1:J67"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A7" zoomScale="130" zoomScaleNormal="85" zoomScaleSheetLayoutView="130" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A10" zoomScale="130" zoomScaleNormal="85" zoomScaleSheetLayoutView="130" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19:I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -936,69 +936,69 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="34"/>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="35" t="s">
+      <c r="A1" s="44"/>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="45"/>
     </row>
     <row r="2" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="34"/>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="36" t="s">
+      <c r="A2" s="44"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
-      <c r="I2" s="38"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="47"/>
+      <c r="I2" s="48"/>
     </row>
     <row r="3" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="34"/>
-      <c r="B3" s="34"/>
-      <c r="C3" s="34"/>
-      <c r="D3" s="39" t="s">
+      <c r="A3" s="44"/>
+      <c r="B3" s="44"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="40"/>
-      <c r="F3" s="40"/>
-      <c r="G3" s="40"/>
-      <c r="H3" s="40"/>
-      <c r="I3" s="41"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="50"/>
+      <c r="G3" s="50"/>
+      <c r="H3" s="50"/>
+      <c r="I3" s="51"/>
     </row>
     <row r="4" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="34"/>
-      <c r="B4" s="34"/>
-      <c r="C4" s="34"/>
-      <c r="D4" s="42" t="s">
+      <c r="A4" s="44"/>
+      <c r="B4" s="44"/>
+      <c r="C4" s="44"/>
+      <c r="D4" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="43"/>
-      <c r="F4" s="43"/>
-      <c r="G4" s="43"/>
-      <c r="H4" s="43"/>
-      <c r="I4" s="44"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
+      <c r="H4" s="53"/>
+      <c r="I4" s="54"/>
     </row>
     <row r="5" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="45" t="s">
+      <c r="A5" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="45"/>
-      <c r="C5" s="45"/>
-      <c r="D5" s="46"/>
-      <c r="E5" s="46"/>
-      <c r="F5" s="46"/>
-      <c r="G5" s="46"/>
-      <c r="H5" s="46"/>
-      <c r="I5" s="46"/>
+      <c r="B5" s="37"/>
+      <c r="C5" s="37"/>
+      <c r="D5" s="38"/>
+      <c r="E5" s="38"/>
+      <c r="F5" s="38"/>
+      <c r="G5" s="38"/>
+      <c r="H5" s="38"/>
+      <c r="I5" s="38"/>
     </row>
     <row r="6" spans="1:10" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="30"/>
@@ -1012,12 +1012,12 @@
       <c r="I6" s="31"/>
     </row>
     <row r="7" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="51" t="s">
+      <c r="A7" s="43" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="51"/>
-      <c r="C7" s="51"/>
-      <c r="D7" s="51"/>
+      <c r="B7" s="43"/>
+      <c r="C7" s="43"/>
+      <c r="D7" s="43"/>
       <c r="E7" s="26"/>
       <c r="F7" s="24"/>
       <c r="G7" s="24"/>
@@ -1025,12 +1025,12 @@
       <c r="I7" s="24"/>
     </row>
     <row r="8" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="51" t="s">
+      <c r="A8" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="51"/>
-      <c r="C8" s="51"/>
-      <c r="D8" s="51"/>
+      <c r="B8" s="43"/>
+      <c r="C8" s="43"/>
+      <c r="D8" s="43"/>
       <c r="E8" s="26"/>
       <c r="F8" s="25"/>
       <c r="G8" s="25"/>
@@ -1038,12 +1038,12 @@
       <c r="I8" s="25"/>
     </row>
     <row r="9" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="51" t="s">
+      <c r="A9" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="51"/>
-      <c r="C9" s="51"/>
-      <c r="D9" s="51"/>
+      <c r="B9" s="43"/>
+      <c r="C9" s="43"/>
+      <c r="D9" s="43"/>
       <c r="E9" s="26"/>
       <c r="F9" s="24"/>
       <c r="G9" s="24"/>
@@ -1051,12 +1051,12 @@
       <c r="I9" s="24"/>
     </row>
     <row r="10" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="51" t="s">
+      <c r="A10" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="51"/>
-      <c r="C10" s="51"/>
-      <c r="D10" s="51"/>
+      <c r="B10" s="43"/>
+      <c r="C10" s="43"/>
+      <c r="D10" s="43"/>
       <c r="E10" s="26"/>
       <c r="F10" s="24"/>
       <c r="G10" s="24"/>
@@ -1105,118 +1105,118 @@
       <c r="J12" s="7"/>
     </row>
     <row r="13" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="52">
+      <c r="A13" s="34">
         <v>1</v>
       </c>
-      <c r="B13" s="53" t="s">
+      <c r="B13" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="54">
+      <c r="C13" s="36">
         <v>1205220007</v>
       </c>
       <c r="D13" s="32"/>
-      <c r="E13" s="53" t="s">
+      <c r="E13" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="F13" s="53"/>
-      <c r="G13" s="53" t="s">
+      <c r="F13" s="35"/>
+      <c r="G13" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="H13" s="53" t="s">
+      <c r="H13" s="35" t="s">
         <v>29</v>
       </c>
       <c r="I13" s="33"/>
       <c r="J13" s="7"/>
     </row>
     <row r="14" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="52">
+      <c r="A14" s="34">
         <v>2</v>
       </c>
-      <c r="B14" s="53" t="s">
+      <c r="B14" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="54">
+      <c r="C14" s="36">
         <v>291220020</v>
       </c>
       <c r="D14" s="32"/>
-      <c r="E14" s="53" t="s">
+      <c r="E14" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="F14" s="53"/>
-      <c r="G14" s="53" t="s">
+      <c r="F14" s="35"/>
+      <c r="G14" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="H14" s="53" t="s">
+      <c r="H14" s="35" t="s">
         <v>31</v>
       </c>
       <c r="I14" s="33"/>
       <c r="J14" s="7"/>
     </row>
     <row r="15" spans="1:10" s="28" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="52">
+      <c r="A15" s="34">
         <v>3</v>
       </c>
-      <c r="B15" s="53" t="s">
+      <c r="B15" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="54">
+      <c r="C15" s="36">
         <v>210220230102</v>
       </c>
       <c r="D15" s="32"/>
-      <c r="E15" s="53" t="s">
+      <c r="E15" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="F15" s="53"/>
-      <c r="G15" s="53" t="s">
+      <c r="F15" s="35"/>
+      <c r="G15" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="H15" s="53" t="s">
+      <c r="H15" s="35" t="s">
         <v>29</v>
       </c>
       <c r="I15" s="33"/>
       <c r="J15" s="27"/>
     </row>
     <row r="16" spans="1:10" s="28" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="52">
+      <c r="A16" s="34">
         <v>4</v>
       </c>
-      <c r="B16" s="53" t="s">
+      <c r="B16" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="C16" s="54">
+      <c r="C16" s="36">
         <v>210220230013</v>
       </c>
       <c r="D16" s="32"/>
-      <c r="E16" s="53" t="s">
+      <c r="E16" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="F16" s="53"/>
-      <c r="G16" s="53" t="s">
+      <c r="F16" s="35"/>
+      <c r="G16" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="H16" s="53" t="s">
+      <c r="H16" s="35" t="s">
         <v>32</v>
       </c>
       <c r="I16" s="33"/>
       <c r="J16" s="27"/>
     </row>
     <row r="17" spans="1:10" s="28" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="52">
+      <c r="A17" s="34">
         <v>5</v>
       </c>
-      <c r="B17" s="53" t="s">
+      <c r="B17" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="C17" s="53" t="s">
+      <c r="C17" s="35" t="s">
         <v>26</v>
       </c>
       <c r="D17" s="32"/>
-      <c r="E17" s="53" t="s">
+      <c r="E17" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="F17" s="53"/>
+      <c r="F17" s="35"/>
       <c r="G17" s="32"/>
-      <c r="H17" s="53" t="s">
+      <c r="H17" s="35" t="s">
         <v>33</v>
       </c>
       <c r="I17" s="33"/>
@@ -1243,26 +1243,26 @@
       </c>
       <c r="E19" s="13"/>
       <c r="F19" s="13"/>
-      <c r="G19" s="47" t="s">
+      <c r="G19" s="39" t="s">
         <v>35</v>
       </c>
-      <c r="H19" s="47"/>
-      <c r="I19" s="47"/>
+      <c r="H19" s="39"/>
+      <c r="I19" s="39"/>
     </row>
     <row r="20" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="49" t="s">
+      <c r="A20" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="B20" s="49"/>
-      <c r="C20" s="49"/>
-      <c r="D20" s="49"/>
-      <c r="E20" s="49"/>
+      <c r="B20" s="41"/>
+      <c r="C20" s="41"/>
+      <c r="D20" s="41"/>
+      <c r="E20" s="41"/>
       <c r="F20" s="14"/>
-      <c r="G20" s="50" t="s">
+      <c r="G20" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="H20" s="50"/>
-      <c r="I20" s="50"/>
+      <c r="H20" s="42"/>
+      <c r="I20" s="42"/>
     </row>
     <row r="21" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="15"/>
@@ -1309,19 +1309,19 @@
       <c r="I24" s="18"/>
     </row>
     <row r="25" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="49" t="s">
+      <c r="A25" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="B25" s="49"/>
-      <c r="C25" s="49"/>
-      <c r="D25" s="49"/>
-      <c r="E25" s="49"/>
+      <c r="B25" s="41"/>
+      <c r="C25" s="41"/>
+      <c r="D25" s="41"/>
+      <c r="E25" s="41"/>
       <c r="F25" s="12"/>
-      <c r="G25" s="49" t="s">
+      <c r="G25" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="H25" s="49"/>
-      <c r="I25" s="49"/>
+      <c r="H25" s="41"/>
+      <c r="I25" s="41"/>
     </row>
     <row r="26" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="12"/>
@@ -1335,12 +1335,17 @@
       <c r="I26" s="20"/>
     </row>
     <row r="28" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B28" s="48"/>
-      <c r="C28" s="48"/>
+      <c r="B28" s="40"/>
+      <c r="C28" s="40"/>
     </row>
     <row r="67" ht="20.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A1:C4"/>
+    <mergeCell ref="D1:I1"/>
+    <mergeCell ref="D2:I2"/>
+    <mergeCell ref="D3:I3"/>
+    <mergeCell ref="D4:I4"/>
     <mergeCell ref="A5:I5"/>
     <mergeCell ref="G19:I19"/>
     <mergeCell ref="B28:C28"/>
@@ -1352,14 +1357,9 @@
     <mergeCell ref="A8:D8"/>
     <mergeCell ref="A9:D9"/>
     <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A1:C4"/>
-    <mergeCell ref="D1:I1"/>
-    <mergeCell ref="D2:I2"/>
-    <mergeCell ref="D3:I3"/>
-    <mergeCell ref="D4:I4"/>
   </mergeCells>
   <pageMargins left="0.5" right="1" top="1" bottom="1" header="0" footer="0"/>
-  <pageSetup paperSize="9" scale="21" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="88" orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>